--- a/results/geoparsing-results-EUPEG.xlsx
+++ b/results/geoparsing-results-EUPEG.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernard\Documents\GitHub\thesis\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB2E230-D907-4C1D-B313-3397C8BBA232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E465342-1154-40F0-8724-02E45C0C794C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="3405" windowWidth="17115" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="3960" windowWidth="17115" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="eval metrics on English corpora" sheetId="2" r:id="rId2"/>
-    <sheet name="eval metrics on DPD" sheetId="3" r:id="rId3"/>
+    <sheet name="EUPEG Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Table 1 - F1 scores" sheetId="4" r:id="rId2"/>
+    <sheet name="Table 2 - avg metrics English" sheetId="2" r:id="rId3"/>
+    <sheet name="Table 3 - metric DPD" sheetId="3" r:id="rId4"/>
+    <sheet name="Table 4 - metrics per dataset" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="178">
   <si>
     <t>dataset</t>
   </si>
@@ -100,12 +102,21 @@
     <t>Model</t>
   </si>
   <si>
+    <t>GWN</t>
+  </si>
+  <si>
+    <t>DPD</t>
+  </si>
+  <si>
     <t>English geotagging approaches</t>
   </si>
   <si>
     <t>StanfordNer</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>UniMelb</t>
   </si>
   <si>
@@ -160,9 +171,6 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>model</t>
-  </si>
-  <si>
     <t>XLM-R-ner</t>
   </si>
   <si>
@@ -187,219 +195,33 @@
     <t>nl_core_news_lg</t>
   </si>
   <si>
-    <t>avg_precision</t>
-  </si>
-  <si>
-    <t>avg_recall</t>
-  </si>
-  <si>
-    <t>avg_f1</t>
-  </si>
-  <si>
-    <t>avg_acc</t>
-  </si>
-  <si>
-    <t>0.725 (0.772)</t>
-  </si>
-  <si>
-    <t>0.696 (0.742)</t>
-  </si>
-  <si>
-    <t>0.709 (0.755)</t>
-  </si>
-  <si>
     <t>0.679 (0.725)</t>
   </si>
   <si>
-    <t>0.8 (0.9)</t>
-  </si>
-  <si>
-    <t>0.539 (0.602)</t>
-  </si>
-  <si>
-    <t>0.643 (0.721)</t>
-  </si>
-  <si>
     <t>0.496 (0.558)</t>
   </si>
   <si>
-    <t>0.729 (0.924)</t>
-  </si>
-  <si>
-    <t>0.514 (0.65)</t>
-  </si>
-  <si>
-    <t>0.602 (0.762)</t>
-  </si>
-  <si>
     <t>0.492 (0.621)</t>
   </si>
   <si>
-    <t>0.759 (0.961)</t>
-  </si>
-  <si>
-    <t>0.552 (0.697)</t>
-  </si>
-  <si>
-    <t>0.639 (0.807)</t>
-  </si>
-  <si>
     <t>0.526 (0.664)</t>
   </si>
   <si>
-    <t>0.871 (0.91)</t>
-  </si>
-  <si>
-    <t>0.663 (0.692)</t>
-  </si>
-  <si>
-    <t>0.752 (0.785)</t>
-  </si>
-  <si>
     <t>0.639 (0.669)</t>
   </si>
   <si>
-    <t>0.866 (0.901)</t>
-  </si>
-  <si>
-    <t>0.704 (0.731)</t>
-  </si>
-  <si>
-    <t>0.775 (0.806)</t>
-  </si>
-  <si>
-    <t>0.686 (0.714)</t>
-  </si>
-  <si>
-    <t>0.886 (0.923)</t>
-  </si>
-  <si>
-    <t>0.726 (0.756)</t>
-  </si>
-  <si>
-    <t>0.797 (0.83)</t>
-  </si>
-  <si>
     <t>0.704 (0.735)</t>
   </si>
   <si>
-    <t>0.843 (0.883)</t>
-  </si>
-  <si>
-    <t>0.692 (0.724)</t>
-  </si>
-  <si>
-    <t>0.758 (0.794)</t>
-  </si>
-  <si>
-    <t>0.677 (0.71)</t>
-  </si>
-  <si>
-    <t>0.734 (0.775)</t>
-  </si>
-  <si>
-    <t>0.679 (0.717)</t>
-  </si>
-  <si>
-    <t>0.704 (0.744)</t>
-  </si>
-  <si>
     <t>0.658 (0.697)</t>
   </si>
   <si>
-    <t>0.649 (0.753)</t>
-  </si>
-  <si>
-    <t>0.331 (0.383)</t>
-  </si>
-  <si>
-    <t>0.437 (0.506)</t>
-  </si>
-  <si>
     <t>0.292 (0.338)</t>
   </si>
   <si>
-    <t>0.800 (0.900)</t>
-  </si>
-  <si>
-    <t>0.514 (0.650)</t>
-  </si>
-  <si>
-    <t>0.871 (0.910)</t>
-  </si>
-  <si>
     <t>0.677 (0.710)</t>
   </si>
   <si>
-    <t>0.797 (0.830)</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>0.544 (0.589)</t>
-  </si>
-  <si>
-    <t>0.669 (0.728)</t>
-  </si>
-  <si>
-    <t>0.6 (0.651)</t>
-  </si>
-  <si>
-    <t>0.575 (0.663)</t>
-  </si>
-  <si>
-    <t>0.5 (0.582)</t>
-  </si>
-  <si>
-    <t>0.535 (0.62)</t>
-  </si>
-  <si>
-    <t>0.65 (0.703)</t>
-  </si>
-  <si>
-    <t>0.718 (0.782)</t>
-  </si>
-  <si>
-    <t>0.683 (0.74)</t>
-  </si>
-  <si>
-    <t>0.651 (0.702)</t>
-  </si>
-  <si>
-    <t>0.729 (0.791)</t>
-  </si>
-  <si>
-    <t>0.688 (0.744)</t>
-  </si>
-  <si>
-    <t>0.624 (0.689)</t>
-  </si>
-  <si>
-    <t>0.636 (0.709)</t>
-  </si>
-  <si>
-    <t>0.63 (0.699)</t>
-  </si>
-  <si>
-    <t>0.526 (0.57)</t>
-  </si>
-  <si>
-    <t>0.636 (0.695)</t>
-  </si>
-  <si>
-    <t>0.576 (0.626)</t>
-  </si>
-  <si>
-    <t>0.587 (0.692)</t>
-  </si>
-  <si>
-    <t>0.48 (0.572)</t>
-  </si>
-  <si>
-    <t>0.528 (0.626)</t>
-  </si>
-  <si>
     <t>0.604 (0.654)</t>
   </si>
   <si>
@@ -421,28 +243,334 @@
     <t>0.396 (0.467)</t>
   </si>
   <si>
-    <t>0.500 (0.582)</t>
-  </si>
-  <si>
-    <t>0.600 (0.651)</t>
-  </si>
-  <si>
-    <t>0.526 (0.570)</t>
-  </si>
-  <si>
-    <t>0.650 (0.703)</t>
-  </si>
-  <si>
-    <t>0.630 (0.699)</t>
-  </si>
-  <si>
-    <t>0.535 (0.620)</t>
-  </si>
-  <si>
-    <t>0.683 (0.740)</t>
-  </si>
-  <si>
-    <t>0.480 (0.572)</t>
+    <t>0.567 (0.615)</t>
+  </si>
+  <si>
+    <t>0.689 (0.715)</t>
+  </si>
+  <si>
+    <t>0.651 (0.724)</t>
+  </si>
+  <si>
+    <t>0.745 (0.785)</t>
+  </si>
+  <si>
+    <t>0.467 (0.539)</t>
+  </si>
+  <si>
+    <t>0.601 (0.656)</t>
+  </si>
+  <si>
+    <t>0.56 (0.651)</t>
+  </si>
+  <si>
+    <t>0.669 (0.753)</t>
+  </si>
+  <si>
+    <t>0.141 (0.192)</t>
+  </si>
+  <si>
+    <t>0.56 (0.712)</t>
+  </si>
+  <si>
+    <t>0.498 (0.699)</t>
+  </si>
+  <si>
+    <t>0.697 (0.81)</t>
+  </si>
+  <si>
+    <t>0.35 (0.41)</t>
+  </si>
+  <si>
+    <t>0.587 (0.745)</t>
+  </si>
+  <si>
+    <t>0.556 (0.77)</t>
+  </si>
+  <si>
+    <t>0.718 (0.837)</t>
+  </si>
+  <si>
+    <t>0.645 (0.697)</t>
+  </si>
+  <si>
+    <t>0.737 (0.75)</t>
+  </si>
+  <si>
+    <t>0.69 (0.747)</t>
+  </si>
+  <si>
+    <t>0.775 (0.803)</t>
+  </si>
+  <si>
+    <t>0.271 (0.32)</t>
+  </si>
+  <si>
+    <t>0.725 (0.78)</t>
+  </si>
+  <si>
+    <t>0.811 (0.836)</t>
+  </si>
+  <si>
+    <t>0.652 (0.703)</t>
+  </si>
+  <si>
+    <t>0.77 (0.781)</t>
+  </si>
+  <si>
+    <t>0.745 (0.804)</t>
+  </si>
+  <si>
+    <t>0.828 (0.86)</t>
+  </si>
+  <si>
+    <t>0.584 (0.647)</t>
+  </si>
+  <si>
+    <t>0.744 (0.759)</t>
+  </si>
+  <si>
+    <t>0.696 (0.758)</t>
+  </si>
+  <si>
+    <t>0.801 (0.833)</t>
+  </si>
+  <si>
+    <t>0.543 (0.59)</t>
+  </si>
+  <si>
+    <t>0.681 (0.699)</t>
+  </si>
+  <si>
+    <t>0.642 (0.709)</t>
+  </si>
+  <si>
+    <t>0.739 (0.774)</t>
+  </si>
+  <si>
+    <t>0.472 (0.557)</t>
+  </si>
+  <si>
+    <t>0.366 (0.432)</t>
+  </si>
+  <si>
+    <t>0.327 (0.389)</t>
+  </si>
+  <si>
+    <t>0.504 (0.565)</t>
+  </si>
+  <si>
+    <t>0.271 (0.320)</t>
+  </si>
+  <si>
+    <t>0.725 (0.780)</t>
+  </si>
+  <si>
+    <t>0.697 (0.810)</t>
+  </si>
+  <si>
+    <t>0.556 (0.770)</t>
+  </si>
+  <si>
+    <t>0.560 (0.712)</t>
+  </si>
+  <si>
+    <t>0.350 (0.410)</t>
+  </si>
+  <si>
+    <t>0.543 (0.590)</t>
+  </si>
+  <si>
+    <t>0.737 (0.750)</t>
+  </si>
+  <si>
+    <t>0.690 (0.747)</t>
+  </si>
+  <si>
+    <t>0.560 (0.651)</t>
+  </si>
+  <si>
+    <t>0.828 (0.860)</t>
+  </si>
+  <si>
+    <t>0.770 (0.781)</t>
+  </si>
+  <si>
+    <t>0.677*</t>
+  </si>
+  <si>
+    <t>0.803*</t>
+  </si>
+  <si>
+    <t>0.739*</t>
+  </si>
+  <si>
+    <t>0.673*</t>
+  </si>
+  <si>
+    <t>0.715*</t>
+  </si>
+  <si>
+    <t>0.722*</t>
+  </si>
+  <si>
+    <t>0.717*</t>
+  </si>
+  <si>
+    <t>0.715 (0.762)</t>
+  </si>
+  <si>
+    <t>0.695 (0.741)</t>
+  </si>
+  <si>
+    <t>0.798 (0.898)</t>
+  </si>
+  <si>
+    <t>0.725 (0.919)</t>
+  </si>
+  <si>
+    <t>0.865 (0.903)</t>
+  </si>
+  <si>
+    <t>0.734 (0.767)</t>
+  </si>
+  <si>
+    <t>0.697 (0.739)</t>
+  </si>
+  <si>
+    <t>0.754 (0.799)</t>
+  </si>
+  <si>
+    <t>0.882 (0.919)</t>
+  </si>
+  <si>
+    <t>0.781 (0.815)</t>
+  </si>
+  <si>
+    <t>0.838 (0.878)</t>
+  </si>
+  <si>
+    <t>0.747 (0.783)</t>
+  </si>
+  <si>
+    <t>0.724 (0.765)</t>
+  </si>
+  <si>
+    <t>0.658 (0.696)</t>
+  </si>
+  <si>
+    <t>0.687 (0.727)</t>
+  </si>
+  <si>
+    <t>0.637 (0.739)</t>
+  </si>
+  <si>
+    <t>0.399 (0.462)</t>
+  </si>
+  <si>
+    <t>0.820 (0.869)</t>
+  </si>
+  <si>
+    <t>0.759 (0.960)</t>
+  </si>
+  <si>
+    <t>0.610 (0.687)</t>
+  </si>
+  <si>
+    <t>0.620 (0.784)</t>
+  </si>
+  <si>
+    <t>0.585 (0.740)</t>
+  </si>
+  <si>
+    <t>0.840*</t>
+  </si>
+  <si>
+    <t>0.796*</t>
+  </si>
+  <si>
+    <t>0.781*</t>
+  </si>
+  <si>
+    <t>0.620*</t>
+  </si>
+  <si>
+    <t>0.634*</t>
+  </si>
+  <si>
+    <t>0.663*</t>
+  </si>
+  <si>
+    <t>0.740*</t>
+  </si>
+  <si>
+    <t>0.703*</t>
+  </si>
+  <si>
+    <t>0.690*</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>0.620 (0.686)</t>
+  </si>
+  <si>
+    <t>0.572 (0.661)</t>
+  </si>
+  <si>
+    <t>0.648 (0.700)</t>
+  </si>
+  <si>
+    <t>0.650 (0.701)</t>
+  </si>
+  <si>
+    <t>0.517 (0.562)</t>
+  </si>
+  <si>
+    <t>0.535 (0.580)</t>
+  </si>
+  <si>
+    <t>0.585 (0.691)</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>0.701 (0.815)</t>
+  </si>
+  <si>
+    <t>0.550 (0.632)</t>
+  </si>
+  <si>
+    <t>0.609 (0.703)</t>
+  </si>
+  <si>
+    <t>0.823 (0.889)</t>
+  </si>
+  <si>
+    <t>0.661 (0.711)</t>
+  </si>
+  <si>
+    <t>0.729 (0.786)</t>
+  </si>
+  <si>
+    <t>0.805 (0.880)</t>
+  </si>
+  <si>
+    <t>0.547 (0.593)</t>
+  </si>
+  <si>
+    <t>0.646 (0.703)</t>
+  </si>
+  <si>
+    <t>0.569 (0.650)</t>
+  </si>
+  <si>
+    <t>0.433 (0.483)</t>
+  </si>
+  <si>
+    <t>0.469 (0.527)</t>
   </si>
 </sst>
 </file>
@@ -452,7 +580,7 @@
   <numFmts count="1">
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,6 +625,30 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -546,26 +698,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -574,17 +732,71 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -867,7 +1079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H10"/>
     </sheetView>
   </sheetViews>
@@ -1773,11 +1985,1058 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E33AF1-31DC-4947-9CD7-1AE462899AFB}">
+  <dimension ref="A1:P67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+    </row>
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G18" s="18"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+    </row>
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+    </row>
+    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+    </row>
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+    </row>
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G32" s="18"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="97">
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="A64:E65"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="A50:E51"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A34:A35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72885B79-145E-4DC0-93D2-45256228622B}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="A1:XFD1048576"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1788,456 +3047,309 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B15" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0.84</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.74</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.66300000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.70299999999999996</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.62</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.69</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B17" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>93</v>
+      <c r="D17" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" t="s">
-        <v>57</v>
-      </c>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" t="s">
-        <v>61</v>
-      </c>
+      <c r="A23" s="9"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" t="s">
-        <v>65</v>
-      </c>
+      <c r="A24" s="10"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" t="s">
-        <v>69</v>
-      </c>
+      <c r="A25" s="9"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" t="s">
-        <v>73</v>
-      </c>
+      <c r="A26" s="10"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" t="s">
-        <v>77</v>
-      </c>
+      <c r="A27" s="9"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" t="s">
-        <v>81</v>
-      </c>
+      <c r="A28" s="10"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" t="s">
-        <v>85</v>
-      </c>
+      <c r="A29" s="9"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" t="s">
-        <v>89</v>
-      </c>
+      <c r="A30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" t="s">
-        <v>93</v>
-      </c>
+      <c r="A31" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2250,12 +3362,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F4DF4C-452D-4CBF-AC86-932B288FCEAE}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2265,295 +3377,479 @@
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="38"/>
+      <c r="B24" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A17:E18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A40A312-303F-4DE0-9741-63ED53365864}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="A1" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>125</v>
+      <c r="A2" s="29"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>123</v>
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>126</v>
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A9:E9"/>
+  <mergeCells count="25">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
